--- a/Icris.Excel2Api.Tests/bin/Release/data/test.xlsx
+++ b/Icris.Excel2Api.Tests/bin/Release/data/test.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A69871FA-7A2C-4C11-8F61-A0C3049AFED2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6F04A71A-B3EB-4934-97AC-DD044996E05C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,6 +611,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -662,7 +665,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +742,7 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <f>VLOOKUP(Input!D5,Process!A2:B5,2)*C3/1000</f>
+        <f>VLOOKUP(Input!D5,Process!A2:B5,2,FALSE)*C3/1000</f>
         <v>4.0294400000000001</v>
       </c>
       <c r="D5" t="s">
